--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_7304F557EC86D3F202684AB1D52D477541A563A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821E2483-93E4-4157-938F-CEA9C77F3E41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1215" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Harde" sheetId="6" r:id="rId1"/>
@@ -274,13 +274,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -568,44 +568,44 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -622,7 +622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -635,17 +635,17 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -661,7 +661,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -669,7 +669,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -677,7 +677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -693,12 +693,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -714,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,17 +722,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -748,85 +748,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -851,48 +851,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -922,17 +922,17 @@
       <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -948,15 +948,15 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -964,7 +964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,12 +980,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1009,17 +1009,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1035,85 +1035,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1142,44 +1142,44 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1209,17 +1209,17 @@
       <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1296,17 +1296,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,85 +1322,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1425,48 +1425,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66F11A-FC3A-4D85-846F-1520542978EE}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1496,17 +1496,17 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,12 +1554,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1583,17 +1583,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1609,85 +1609,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1716,44 +1716,44 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1783,17 +1783,17 @@
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,12 +1841,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1870,17 +1870,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1896,85 +1896,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014CE848-5F2E-4D34-BE14-E8CA1A1C30F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1215" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Harde" sheetId="6" r:id="rId1"/>
@@ -568,44 +568,44 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -622,7 +622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -637,15 +637,15 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -661,7 +661,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -669,7 +669,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -677,7 +677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -693,12 +693,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -714,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,17 +722,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -748,85 +748,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -851,48 +851,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -924,15 +924,15 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -948,7 +948,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -956,7 +956,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -964,7 +964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,12 +980,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1009,17 +1009,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1035,85 +1035,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1142,44 +1142,44 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1211,15 +1211,15 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1296,17 +1296,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,85 +1322,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1429,44 +1429,44 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1498,15 +1498,15 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,12 +1554,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1583,17 +1583,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1609,85 +1609,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -1712,48 +1712,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1785,15 +1785,15 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1809,15 +1809,15 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,12 +1841,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1870,17 +1870,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1896,85 +1896,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014CE848-5F2E-4D34-BE14-E8CA1A1C30F8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EAC917-88DA-4779-96C0-77A3E1C3FEE8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1215" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Harde" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
   <si>
     <t>Short Description</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>puli193</t>
+  </si>
+  <si>
+    <t>Maschinenbau und Design</t>
   </si>
 </sst>
 </file>
@@ -297,6 +300,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,7 +572,7 @@
   <dimension ref="A2:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +651,9 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -666,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45594</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1149,7 @@
   <dimension ref="A2:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,6 +1228,9 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1240,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45594</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66F11A-FC3A-4D85-846F-1520542978EE}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,6 +1518,9 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1527,7 +1543,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45594</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1712,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,6 +1807,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC74FB-723C-4E10-83D8-709DF7403831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
   <si>
     <t>Short Description</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>puli193</t>
+  </si>
+  <si>
+    <t>Maschinenbau und Design</t>
   </si>
 </sst>
 </file>
@@ -851,14 +854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
     <col min="3" max="3" width="33.08984375" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -930,6 +933,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC74FB-723C-4E10-83D8-709DF7403831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9511CC-7C48-4D07-A139-FC0A90E5C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
   <si>
     <t>Short Description</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>puli193</t>
-  </si>
-  <si>
-    <t>Maschinenbau und Design</t>
   </si>
 </sst>
 </file>
@@ -854,14 +851,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="33.08984375" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -933,9 +930,6 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">

--- a/author.xlsx
+++ b/author.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC74FB-723C-4E10-83D8-709DF7403831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62B897-754C-47B5-8237-FB8D97CEDBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Harde" sheetId="6" r:id="rId1"/>
     <sheet name="Student_Juergens" sheetId="7" r:id="rId2"/>
     <sheet name="Student_Wedemann" sheetId="8" r:id="rId3"/>
     <sheet name="Student_Pulskamp" sheetId="9" r:id="rId4"/>
-    <sheet name="Student_Steenhoff" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="54">
   <si>
     <t>Short Description</t>
   </si>
@@ -134,15 +133,6 @@
     <t>OLED - Display</t>
   </si>
   <si>
-    <t>Steenhoff</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>ma7277</t>
-  </si>
-  <si>
     <t>Aron</t>
   </si>
   <si>
@@ -192,6 +182,9 @@
   </si>
   <si>
     <t>Maschinenbau und Design</t>
+  </si>
+  <si>
+    <t>marten.juergens@stud.hs-emden-leer.de</t>
   </si>
 </sst>
 </file>
@@ -627,16 +620,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>7022407</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -677,7 +670,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -722,17 +715,17 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -854,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9303FD-2881-47EE-8AD0-19738A635E19}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,6 +857,7 @@
     <col min="2" max="2" width="31.26953125" customWidth="1"/>
     <col min="3" max="3" width="33.08984375" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
@@ -914,18 +908,20 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>7022862</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
@@ -935,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -967,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,8 +978,8 @@
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
+      <c r="B25" s="1">
+        <v>36137</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
@@ -995,34 +991,28 @@
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1135,8 +1125,11 @@
       <formula1>"Technical Management, Business Intelligen ans Data Analytics,Maschinenbau,Indin,IBS,Maschinenbau und Design,Maschinenbau und Design im Praxisverbund,Engineering Physics,other"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{9A6D9412-C34C-4F5A-99BE-6BA9BBC56B1D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1204,16 +1197,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>7022929</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1254,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1299,17 +1292,17 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,16 +1484,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
         <v>7014796</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1541,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1586,17 +1579,17 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1712,291 +1705,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7022283</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A50" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Study Course" prompt="Choose your Study Course" sqref="B14" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Technical Management, Business Intelligen ans Data Analytics,Maschinenbau,Indin,IBS,Maschinenbau und Design,Maschinenbau und Design im Praxisverbund,Engineering Physics,other"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name of the module" prompt="e.g. _x000a_Master Thesis_x000a_Bachelor Thesis _x000a_Mathematics and Analytics_x000a_Projekt 1_x000a_Project T_x000a_Technisches Projekt" sqref="B21" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>